--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1344,6 +1344,115 @@
   </si>
   <si>
     <t>Bundle.entry:organizationentry.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry</t>
+  </si>
+  <si>
+    <t>practitionerRoleentry</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-role-lrm}
+</t>
+  </si>
+  <si>
+    <t>Roles/organizations the practitioner is associated with</t>
+  </si>
+  <si>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerRoleentry.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1665,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN153"/>
+  <dimension ref="A1:AN185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1674,9 +1783,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.20703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.65625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1684,7 +1793,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.57421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -19006,9 +19115,11 @@
         <v>428</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C153" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D153" t="s" s="2">
         <v>76</v>
       </c>
@@ -19029,20 +19140,16 @@
         <v>87</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>76</v>
       </c>
@@ -19090,30 +19197,3670 @@
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>428</v>
+        <v>224</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ153" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL153" t="s" s="2">
+      <c r="AK158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q162" s="2"/>
+      <c r="R162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL162" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AM153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN153" t="s" s="2">
+      <c r="AM162" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN162" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN163" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN168" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q170" s="2"/>
+      <c r="R170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q171" s="2"/>
+      <c r="R171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN171" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O172" s="2"/>
+      <c r="P172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q172" s="2"/>
+      <c r="R172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN172" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q173" s="2"/>
+      <c r="R173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q174" s="2"/>
+      <c r="R174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q175" s="2"/>
+      <c r="R175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN175" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN176" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O184" s="2"/>
+      <c r="P184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN185" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SASBundleApppointmentLRM</t>
+    <t>SASBundleAppointmentLRM</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1453,6 +1453,118 @@
   </si>
   <si>
     <t>Bundle.entry:practitionerRoleentry.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry</t>
+  </si>
+  <si>
+    <t>healthcareserviceentry</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthcareService {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice}
+</t>
+  </si>
+  <si>
+    <t>The details of a healthcare service available at a location</t>
+  </si>
+  <si>
+    <t>The details of a healthcare service available at a location.</t>
+  </si>
+  <si>
+    <t>act[classCode=ACT][moodCode=DEF]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:healthcareserviceentry.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1774,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN185"/>
+  <dimension ref="A1:AN217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1783,9 +1895,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -22753,9 +22865,11 @@
         <v>464</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C185" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D185" t="s" s="2">
         <v>76</v>
       </c>
@@ -22776,20 +22890,16 @@
         <v>87</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>465</v>
+        <v>204</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>466</v>
+        <v>225</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
         <v>76</v>
       </c>
@@ -22837,30 +22947,3670 @@
         <v>76</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>464</v>
+        <v>224</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH185" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI185" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ185" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O187" s="2"/>
+      <c r="P187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O188" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN188" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL185" t="s" s="2">
+      <c r="AK190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN193" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O194" s="2"/>
+      <c r="P194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q194" s="2"/>
+      <c r="R194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL194" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AM185" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN185" t="s" s="2">
+      <c r="AM194" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN194" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM196" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN199" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O204" s="2"/>
+      <c r="P204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN206" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O207" s="2"/>
+      <c r="P207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN207" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL208" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN208" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G209" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q209" s="2"/>
+      <c r="R209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL209" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN209" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q210" s="2"/>
+      <c r="R210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL210" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN210" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q211" s="2"/>
+      <c r="R211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL211" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN211" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O212" s="2"/>
+      <c r="P212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q212" s="2"/>
+      <c r="R212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL212" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN212" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G213" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O213" s="2"/>
+      <c r="P213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q213" s="2"/>
+      <c r="R213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN213" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G214" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O214" s="2"/>
+      <c r="P214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q214" s="2"/>
+      <c r="R214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL214" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN214" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G215" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O215" s="2"/>
+      <c r="P215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q215" s="2"/>
+      <c r="R215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL215" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN215" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O216" s="2"/>
+      <c r="P216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q216" s="2"/>
+      <c r="R216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL216" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN216" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G217" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q217" s="2"/>
+      <c r="R217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL217" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN217" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1255,7 +1255,7 @@
     <t>Bundle.entry:organizationentry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-organization}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-organization-lrm}
 </t>
   </si>
   <si>
@@ -1479,7 +1479,7 @@
     <t>Bundle.entry:healthcareserviceentry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">HealthcareService {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice}
+    <t xml:space="preserve">HealthcareService {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-healthcareservice-lrm}
 </t>
   </si>
   <si>
@@ -1905,7 +1905,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1140,7 +1140,7 @@
     <t>Bundle.entry:practitionerentry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator}
+    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-lrm}
 </t>
   </si>
   <si>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-bundle-appointment-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,7 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -502,7 +502,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -545,7 +545,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
